--- a/data/trans_dic/P35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4208733453686681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4111363879412863</v>
+        <v>0.4111363879412862</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3289909447003512</v>
@@ -685,7 +685,7 @@
         <v>0.4942498887902043</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.486437383290675</v>
+        <v>0.4864373832906752</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3189158610998696</v>
@@ -697,7 +697,7 @@
         <v>0.4627463546309739</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4552941656883016</v>
+        <v>0.4552941656883017</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2760604605331015</v>
+        <v>0.2757750222010374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3561086005366614</v>
+        <v>0.3585964222543654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3871345962247379</v>
+        <v>0.3855135232353087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3730531762554274</v>
+        <v>0.3719578547555896</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3031368418206819</v>
+        <v>0.3043817638937967</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4229553820395703</v>
+        <v>0.419490172230235</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4620558001788633</v>
+        <v>0.4620216387707796</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4587522989819107</v>
+        <v>0.4603696131120184</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3000550213605048</v>
+        <v>0.2984298987470076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.402657956545558</v>
+        <v>0.4044434779266106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4386244091300426</v>
+        <v>0.441180276811644</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4304845013061668</v>
+        <v>0.4303984790149923</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3360118009460971</v>
+        <v>0.3324231840248882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.421106237702719</v>
+        <v>0.4196458911689764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.458118325641647</v>
+        <v>0.4550150316091562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4516440771384966</v>
+        <v>0.4494655030542702</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3559489214994339</v>
+        <v>0.35596303460568</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4793107217121577</v>
+        <v>0.4753167824625452</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5278195992469239</v>
+        <v>0.5269613769993404</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5145528462793477</v>
+        <v>0.5156456191160829</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3386712913176163</v>
+        <v>0.3390121904901097</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4456134037406471</v>
+        <v>0.4481980766202083</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4873272643106853</v>
+        <v>0.4907046419897195</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4782206512421356</v>
+        <v>0.4779639945046275</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2947876066139368</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3706515089086975</v>
+        <v>0.3706515089086974</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1281950376233832</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09572503737333753</v>
+        <v>0.09496173686881179</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.193286486300504</v>
+        <v>0.1925834685266003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2214357619791369</v>
+        <v>0.2198727108242743</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3090948339173731</v>
+        <v>0.3111005184805624</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1277957105140428</v>
+        <v>0.1276861216581527</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2599227360366726</v>
+        <v>0.2555916002686797</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2753146534426147</v>
+        <v>0.2750473670382809</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.35233271272255</v>
+        <v>0.351622647659049</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1162008794348891</v>
+        <v>0.116335806023203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2297832415788517</v>
+        <v>0.230683535843237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2503857624055481</v>
+        <v>0.2538012518178718</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3382816233381069</v>
+        <v>0.3377022450541305</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1261617219288416</v>
+        <v>0.1251896701518043</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2322621553365734</v>
+        <v>0.2324690866084086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2586997235717416</v>
+        <v>0.2606041986347554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3587196928369236</v>
+        <v>0.3570728279763918</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1654758409369155</v>
+        <v>0.1656548288757147</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3016079641988484</v>
+        <v>0.30271786783101</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3172159529237416</v>
+        <v>0.3187775442882773</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3889704807627555</v>
+        <v>0.3904652721174866</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1398328917190774</v>
+        <v>0.1409004173599428</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2598312296398643</v>
+        <v>0.2597392778906564</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2801024891454006</v>
+        <v>0.2818990855920988</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3668818110399715</v>
+        <v>0.3666622002176299</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2371317739025058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.325602884788322</v>
+        <v>0.3256028847883219</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1277015241480484</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1026013768349275</v>
+        <v>0.1003612577183981</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1526033991768212</v>
+        <v>0.1476947065793693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2008554984361958</v>
+        <v>0.2014970487327551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2876173299137957</v>
+        <v>0.2913586617985039</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09894361102587636</v>
+        <v>0.09811368843127066</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2311007596552073</v>
+        <v>0.236873150135791</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2371205696157245</v>
+        <v>0.2393082338635591</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2504082642226147</v>
+        <v>0.2534156554473983</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1090168195065608</v>
+        <v>0.1084860277996045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2030246376870834</v>
+        <v>0.2021584596470049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2292404141469474</v>
+        <v>0.2304454000462023</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2791142332802163</v>
+        <v>0.2788446776052563</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1657877388152518</v>
+        <v>0.1615196593504321</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.228931061990384</v>
+        <v>0.227109828382718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2768019421242858</v>
+        <v>0.2794834419290728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3667213614633409</v>
+        <v>0.3640775150351896</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1634267117379859</v>
+        <v>0.1598696406741002</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3283663096361478</v>
+        <v>0.3267073269155302</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3165623667749696</v>
+        <v>0.3185421638713104</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3108796716039872</v>
+        <v>0.313734363985911</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1544229932041503</v>
+        <v>0.1514822246768563</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2627670264590664</v>
+        <v>0.2593017100351023</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2864585841275091</v>
+        <v>0.286738646369498</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3250461996486437</v>
+        <v>0.3285563019206029</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2800057353498462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3444245377259686</v>
+        <v>0.3444245377259687</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2155856923659197</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2447946672765313</v>
+        <v>0.2449619920797913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2639766010302355</v>
+        <v>0.2635488788766446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3269122846358811</v>
+        <v>0.3294647233963528</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3283276958294243</v>
+        <v>0.3274658502405708</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3303385017778075</v>
+        <v>0.331365556693431</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3651466905292491</v>
+        <v>0.363805658461462</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.290881917992186</v>
+        <v>0.2904759193662406</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3034667295689926</v>
+        <v>0.304175587053952</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3512855857227798</v>
+        <v>0.3506052090315651</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.276683261066121</v>
+        <v>0.2750783329903844</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2960063095199561</v>
+        <v>0.295271951758908</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3612999417101717</v>
+        <v>0.361147457614046</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3594685095092828</v>
+        <v>0.3607162301559539</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3638491098520935</v>
+        <v>0.36478220695839</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3926094644581592</v>
+        <v>0.3913738612688356</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3141258441306494</v>
+        <v>0.3143170725102313</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3261121984768443</v>
+        <v>0.3268559604817037</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3740954636103683</v>
+        <v>0.3738052966921189</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>270725</v>
+        <v>270445</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>340215</v>
+        <v>342592</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>286320</v>
+        <v>285122</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>215822</v>
+        <v>215188</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>380293</v>
+        <v>381855</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>550204</v>
+        <v>545697</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>454213</v>
+        <v>454179</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>376311</v>
+        <v>377638</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>670682</v>
+        <v>667050</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>908487</v>
+        <v>912515</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>755581</v>
+        <v>759984</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>602172</v>
+        <v>602051</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>329518</v>
+        <v>325998</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>402311</v>
+        <v>400916</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>338819</v>
+        <v>336524</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>261289</v>
+        <v>260029</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>446547</v>
+        <v>446565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>623515</v>
+        <v>618319</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>518860</v>
+        <v>518017</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>422084</v>
+        <v>422980</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>756997</v>
+        <v>757759</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1005404</v>
+        <v>1011236</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>839477</v>
+        <v>845295</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>668946</v>
+        <v>668587</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>154555</v>
+        <v>153323</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>366455</v>
+        <v>365122</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>453436</v>
+        <v>450236</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>689456</v>
+        <v>693930</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>191846</v>
+        <v>191682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>442575</v>
+        <v>435200</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>541371</v>
+        <v>540845</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>764366</v>
+        <v>762826</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>362055</v>
+        <v>362475</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>826906</v>
+        <v>830145</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1005069</v>
+        <v>1018779</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1488443</v>
+        <v>1485894</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>203697</v>
+        <v>202128</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>440350</v>
+        <v>440742</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>529742</v>
+        <v>533642</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>800148</v>
+        <v>796475</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>248412</v>
+        <v>248680</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>513553</v>
+        <v>515443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>623764</v>
+        <v>626835</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>843850</v>
+        <v>847093</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>435687</v>
+        <v>439013</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>935037</v>
+        <v>934706</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1124354</v>
+        <v>1131566</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1614284</v>
+        <v>1613318</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54581</v>
+        <v>53390</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>71610</v>
+        <v>69306</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>107556</v>
+        <v>107899</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>204665</v>
+        <v>207327</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44753</v>
+        <v>44378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>102716</v>
+        <v>105281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>127126</v>
+        <v>128299</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>183898</v>
+        <v>186107</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>107304</v>
+        <v>106781</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>185507</v>
+        <v>184715</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>245657</v>
+        <v>246948</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>403594</v>
+        <v>403204</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>88195</v>
+        <v>85925</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>107427</v>
+        <v>106572</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>148224</v>
+        <v>149660</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>260954</v>
+        <v>259073</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73920</v>
+        <v>72311</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>145946</v>
+        <v>145209</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>169716</v>
+        <v>170778</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>228308</v>
+        <v>230404</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>151997</v>
+        <v>149102</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>240094</v>
+        <v>236928</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>306972</v>
+        <v>307273</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>470010</v>
+        <v>475086</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>812850</v>
+        <v>813405</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>877138</v>
+        <v>875717</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1150955</v>
+        <v>1159941</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1132086</v>
+        <v>1129114</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1151402</v>
+        <v>1154982</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1359854</v>
+        <v>1354860</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1968855</v>
+        <v>1966107</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2066095</v>
+        <v>2070921</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2544998</v>
+        <v>2540069</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>918737</v>
+        <v>913408</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>983566</v>
+        <v>981126</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1272023</v>
+        <v>1271486</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1239460</v>
+        <v>1243763</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1268204</v>
+        <v>1271456</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1462129</v>
+        <v>1457527</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2126183</v>
+        <v>2127478</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2220273</v>
+        <v>2225336</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2710252</v>
+        <v>2708149</v>
       </c>
     </row>
     <row r="20">
